--- a/documentacao/planilhas/productBacklog_requisitos.xlsx
+++ b/documentacao/planilhas/productBacklog_requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t xml:space="preserve">Product backlog - Totem Monitoring</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Configurar o sistema para enviar os dados ao banco de dados e logo enviar para exibição</t>
+    <t xml:space="preserve">Configurar o sistema para enviar os dados ao banco de dados e log enviar para exibição</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -92,45 +92,21 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Configurar o Grafana para enviar mensagens via Slack</t>
+    <t xml:space="preserve">Desenvolver um Banco de Dados para que possa ser feito o cadastro dos usuários por nossa equipe</t>
   </si>
   <si>
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Configurar o Grafana para enviar as Logs registradas no BD via Slack</t>
+    <t xml:space="preserve">Desenvolver uma página web para solicitação de uma conta junto com sua assinatura</t>
   </si>
   <si>
     <t xml:space="preserve">3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolver um Banco de Dados para que possa ser feito o cadastro dos usuários por nossa equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir tipos de assinaturas que limitam a quantiadade de totens disponíveis para o monitoramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolver uma página web para solicitação de uma conta junto com sua assinatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir a atualização de quantidade de Totens utilizados por cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir a quantidade de usuários que serão disponibilizador por assinatura</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.1</t>
   </si>
   <si>
@@ -149,97 +125,58 @@
     <t xml:space="preserve">Implementar e configurar o Grafana</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linkar o Grafana ao Slack</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolver o Banco de Dados para conter uma tabela para conter o histórico dos totens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravar os dados e as Logs no Banco de Dados</t>
+    <t xml:space="preserve">Criar uma lógica para que seja possível a atribuição de varios logins por assinatura</t>
   </si>
   <si>
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar uma lógica para que seja possível a atribuição de varios logins por assinatura</t>
+    <t xml:space="preserve">Desenvolver um site institucional</t>
   </si>
   <si>
     <t xml:space="preserve">8.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolver a inteligência que subirá os Logs no Banco de Dados</t>
+    <t xml:space="preserve">Criar uma tela de Login para os usuários assinantes</t>
   </si>
   <si>
     <t xml:space="preserve">8.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolver a inteligência que interpretará os Logs</t>
+    <t xml:space="preserve">Criar uma tela de Cadastro de novos usuários (dentro do limite de cada assinatura)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar uma tela de Configuração de Alertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requisitos Não Funcionais - Totem Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização de um Banco de Dados (SQL - Microsoft Azure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização de uma API para a visualização dos gráficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização do Slack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuração de um BOT de alertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização do Grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilização de fila para caso a Internet caia e os dados não sejam perdidos</t>
   </si>
   <si>
     <t xml:space="preserve">9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolver um site institucional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar uma tela de Login para os usuários assinantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar uma tela de Cadastro de novos totens (dentro do limite de cada assinatura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar uma tela de Cadastro de novos usuários (dentro do limite de cada assinatura)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar uma tela de Configuração de Alertas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criar uma tela de Totens monitorados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requisitos Não Funcionais - Totem Monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização de um Banco de Dados (SQL - Microsoft Azure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização de uma API para a visualização dos gráficos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização do Slack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuração de um BOT de alertas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização do Grafana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilização de fila para caso a Internet caia e os dados não sejam perdidos</t>
   </si>
   <si>
     <t xml:space="preserve">Hosperdar o Site Institucional na Microsoft Azure</t>
@@ -468,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,10 +496,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -660,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,7 +634,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
@@ -714,7 +647,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="13" t="n">
         <v>2</v>
       </c>
@@ -727,7 +660,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="16" t="n">
         <v>3</v>
       </c>
@@ -740,7 +673,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="13" t="n">
         <v>4</v>
       </c>
@@ -753,7 +686,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="16" t="n">
         <v>5</v>
       </c>
@@ -779,7 +712,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="16" t="n">
         <v>7</v>
       </c>
@@ -792,7 +725,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="n">
         <v>8</v>
       </c>
@@ -805,7 +738,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="16" t="n">
         <v>9</v>
       </c>
@@ -818,7 +751,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="n">
         <v>10</v>
       </c>
@@ -850,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D37"/>
+  <dimension ref="B2:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -913,30 +846,30 @@
       <c r="D6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <v>5</v>
+      <c r="D7" s="16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="13"/>
@@ -948,9 +881,7 @@
       <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16" t="n">
-        <v>7</v>
-      </c>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
@@ -962,31 +893,33 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
@@ -1004,205 +937,109 @@
       <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="16"/>
-    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
